--- a/HRMS/TrnDepartmentEnquiry.xlsx
+++ b/HRMS/TrnDepartmentEnquiry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Table Name -  TrnDepartmentEnquiry</t>
   </si>
@@ -137,13 +137,49 @@
   </si>
   <si>
     <t>ImputedDate</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Take DocumentName as String.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Take EnquiryStatusId as Int</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take EnquiryCloseRemark as String.</t>
+  </si>
+  <si>
+    <t>Take EnquiryRemark as String.</t>
+  </si>
+  <si>
+    <t>Take EmpCode as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get EmpId  (MstEmployeeRegistration) in Numaric </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +194,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -194,14 +242,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -211,6 +253,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,401 +573,443 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/TrnDepartmentEnquiry.xlsx
+++ b/HRMS/TrnDepartmentEnquiry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Table Name -  TrnDepartmentEnquiry</t>
   </si>
@@ -173,13 +173,16 @@
   </si>
   <si>
     <t xml:space="preserve">Get EmpId  (MstEmployeeRegistration) in Numaric </t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +202,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,12 +264,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -266,6 +271,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A26" sqref="A26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,32 +600,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -649,7 +663,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -657,7 +671,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -666,7 +680,7 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -683,7 +697,7 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -701,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -719,7 +733,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -737,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -755,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -773,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -791,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -809,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -827,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -845,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -863,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -881,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -899,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -917,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -935,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -953,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -971,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -989,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1007,14 +1021,25 @@
         <v>16</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/TrnDepartmentEnquiry.xlsx
+++ b/HRMS/TrnDepartmentEnquiry.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name -  TrnDepartmentEnquiry</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में विभागीय पूछताछ का विवरण है।</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:F26"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -629,22 +629,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,19 +652,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,16 +672,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,16 +689,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,17 +706,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,17 +724,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,17 +742,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,17 +760,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,17 +778,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,17 +796,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,17 +814,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,17 +832,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,17 +850,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,17 +868,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,17 +886,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,17 +904,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,17 +922,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,17 +940,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,17 +958,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,17 +976,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,17 +994,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,22 +1012,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
